--- a/11-11/yahooNews.xlsx
+++ b/11-11/yahooNews.xlsx
@@ -445,23 +445,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>陳佩琪再發文 公布與柯文哲「10年收入總額」</t>
+          <t>屏東凌晨發生火警 30歲男現場失去生命跡象「送醫搶救仍不治」</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://tw.news.yahoo.com/%E9%99%B3%E4%BD%A9%E7%90%AA%E5%86%8D%E7%99%BC%E6%96%87-%E5%85%AC%E5%B8%83%E8%88%87%E6%9F%AF%E6%96%87%E5%93%B2%E3%80%8C10%E5%B9%B4%E6%94%B6%E5%85%A5%E7%B8%BD%E9%A1%8D%E3%80%8D-055954722.html</t>
+          <t>https://tw.news.yahoo.com/%E5%B1%8F%E6%9D%B1%E5%87%8C%E6%99%A8%E7%99%BC%E7%94%9F%E7%81%AB%E8%AD%A6-30%E6%AD%B2%E7%94%B7%E7%8F%BE%E5%A0%B4%E5%A4%B1%E5%8E%BB%E7%94%9F%E5%91%BD%E8%B7%A1%E8%B1%A1-%E9%80%81%E9%86%AB%E6%90%B6%E6%95%91%E4%BB%8D%E4%B8%8D%E6%B2%BB-002900559.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北地檢署偵辦京華城案，前台北市長柯文哲的太太陳佩琪兩度以證人身分被檢方約談。她今天（10日）再次於臉書發文，公布從104年至112年間她與柯文哲的收入總額，並強調這是每年報稅留下憑據所抄錄下來。
-北檢偵辦京華城案，自今年8月底起陸續發動數波搜索約談，已聲押柯文哲、前台北市副市長彭振聲、威京集團主席沈慶京、國民黨台北市議員應曉薇、前鼎越開發董事長朱亞虎、前台北市長辦公室主任李文宗等人獲准。目前共20多人列為被告，陳佩琪日前兩度以證人身分被約談。
-陳佩琪昨天才透過臉書為柯文哲抱屈，說最近她整理柯文哲的桌子，發現一張幕僚給柯文哲的單子，上面記錄柯文哲當台北市長八年，市長特支費約新台幣700萬到800萬元，全部都給員工當績效獎金用。陳佩琪表示，把柯文哲說成一個見錢眼開、收受賄賂的貪污犯，什麼錢都要拿，根本是在羞辱毀滅，「我不服，我抗議」；夫妻本是同林鳥，大難來時永不散。
-陳佩琪今天再次透過臉書發文，轉發今年9月12日她舉行記者會所講的內容，陳佩琪表示，當天她是說明民國108年到112年這5年，她所有可運用的現金，也是她這5年間存款的來源。
-陳佩琪說「附上一張這10年來我們夫妻的收入總額」，是每年報稅留下的憑據所抄錄下來，當天記者會時尚未收集完全，今天一併公布。根據陳佩琪公布的收入總額分別為「104年735.2963、105年751.5865、106年629.0905、107年772.3163、108年697.9943、109年655.5667、110年703.6252、111年909.7749、112年542.3236」，她特別標註單位為萬元。
-陳佩琪解釋，7日當天的約談約在中午12時結束，「檢察官問我有沒想要再說的，我說有，我有話要說，他還問我要列入筆錄嗎？我說想，我要列入，他也答應了，說要幫我寫入，於是有了昨天臉書上前半段我寫的那些話。」
-編輯：秦穎雯
+          <t xml:space="preserve">[FTNN新聞網]記者洪宗荃／綜合報導
+屏東縣屏東市今（11）日凌晨傳出火警，位於崇明四街的一棟5層樓住宅，於清晨4時20分發生火災，警消獲報後，隨即趕往現場進行救援，其中也成功救出6名民眾，其中有一名30歲男子在救出後，現場已無生命跡象，送醫搶救後仍宣告不治，初步了解，該名男子疑似已經逃出，但為了救貓才冒險返回，結果被嗆昏在3樓陽台。
+根據了解，屏東縣消防局於今晨4時20分，獲報屏東市崇明四街的住宅發生火警後，並初步得知可能有民眾受困於建築頂樓，消防局也出動共計19車38人前往救援，並由第一大隊副大隊長楊景雄帶隊指揮。
+而在經過救援之後，消防人員於上午5點左右，將5名民眾成功救出，情況均為意識清醒，但有出現嗆傷症狀，而後續也將一名31歲男子、一名59歲女子送往寶建醫院，一名58歲男子、一名17歲男子、一名70歲女子送往屏榮醫院就醫。
+此外，消防人員也在搜救過程中，於三樓發現一名30歲男子，已無生命跡象（OHCA），消防人員也於上午5點29分，將該男子送往寶建醫院進行緊急搶救，但仍不幸宣告不治；而該起火災也於上午5點33分時撲滅，而詳細起火原因，仍待調查釐清。
+更多FTNN新聞網報導國3南下交流道爆「6車追撞」！新竹香山段一度全線封閉...2傷者送醫不治屏東火警旁傳「恐怖爆炸聲、連房子都在震」元凶竟是它！警：將依法裁處屏東KTV鬥毆爆「陸海空軍人」涉入！持刀殺害海陸隊員...陸軍士兵被聲押禁見
 </t>
         </is>
       </c>
@@ -472,22 +471,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>秋鬥遊行訴求和平反戰民生優先 籲政府正視物價房價工時「三高」</t>
+          <t>弄丟600萬全網協尋…祭出「2輛保時捷+20萬」禮包 警出手發文者慘了</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://tw.news.yahoo.com/%E7%A7%8B%E9%AC%A5%E9%81%8A%E8%A1%8C%E8%A8%B4%E6%B1%82%E5%92%8C%E5%B9%B3%E5%8F%8D%E6%88%B0%E6%B0%91%E7%94%9F%E5%84%AA%E5%85%88-%E7%B1%B2%E6%94%BF%E5%BA%9C%E6%AD%A3%E8%A6%96%E7%89%A9%E5%83%B9%E6%88%BF%E5%83%B9%E5%B7%A5%E6%99%82%E3%80%8C%E4%B8%89%E9%AB%98%E3%80%8D-070957547.html</t>
+          <t>https://tw.news.yahoo.com/%E5%BC%84%E4%B8%9F600%E8%90%AC%E5%85%A8%E7%B6%B2%E5%8D%94%E5%B0%8B-%E7%A5%AD%E5%87%BA-2%E8%BC%9B%E4%BF%9D%E6%99%82%E6%8D%B7-20%E8%90%AC-%E7%A6%AE%E5%8C%85-125257831.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">秋鬥遊行今天下午登場，約20多個團體、200多人在國家圖書館前人行道集合，遊行至凱達格蘭大道，舉行集會演講與抗議行動，訴求和平反戰、民生優先，呼籲執政黨關注民生議題，同時要求政府正視處理高物價、高房價、高工時等「三高」問題。
-秋鬥遊行今年主要訴求是「和平反戰、民生優先」，呼籲民眾能夠站出來反對戰爭、要求和平，並且在此危機時刻針對目前台灣種種的惡劣現象，發動社會改革行動。
-秋鬥召集人黃德北表示，如中東、烏克蘭等地戰爭正在發生，另一方面也看到戰爭的陰影在台海上空籠罩，不論是已發生或可能發生的戰爭；秋鬥團體不希望台灣變成另一個烏克蘭。當兩岸處於危機狀態時，應該化危機為轉機，將重心改為社會改革、讓人民有更好的生活。
-黃德北認為，勞工勞動條件不斷惡化，勞動工時沒有被縮減，長工時、低薪、高房價、高通膨，這樣的情形人民怎麼忍受。
-秋鬥團體表示，今年訴求台灣不再充當美國棋子，激化兩岸對立危機，並徹底解決當前高物價、高房價、高工時等民生問題，維護環境土地正義，嚴禁政治破壞司法獨立，推動國會全面改革，落實人民主權的民主理念。
-秋鬥遊行起源於1993年，勞工團體希望借用日本工運的春、秋鬥意涵，決定每年秋天發動工人大遊行，開啟台灣自主工運的傳統和歷史，後來也結合勞工、教育、性別、環保、移民、反迫遷、農民等議題，秋鬥逐漸成為社運結盟的平台。
+          <t xml:space="preserve">[周刊王CTWANT] 網路上廣告越來越誇張！最近社群平台Threads瘋傳一張照片，有高雄民眾自稱弄丟裝有600萬元的黑色行李袋，請全網幫忙找，還祭出送保時捷和20萬元的謝禮，引發熱烈討論。不過在警方追查後，拆穿是賣車廣告，貼文的業者恐怕因為散布謠言，將依法被開罰。
+近日社群平台Threads瘋傳一張協尋行李袋的圖片，內容指出失主在9日晚間6時許，在高雄市苓雅區五塊厝捷運站附近遺失一個黑色行李袋，裡面裝有新台幣600萬元現金，請有經過此路段找到行李袋的人能歸還；失主還表示會將2部保時捷「免費過戶」，另外還有20萬元紅包當酬謝。
+這篇全網協尋貼文立刻在網上瘋傳，網友也好奇甚至想起身行動找行李袋。不過高雄苓雅警方很快聯絡到貼文者，一問之下才知道協尋文只是賣車廣告，PO文的業者已經到案說明；警方指出，全案將依違反社會秩序維護法第63條第1項第5款，「散佈謠言，足以影響公共之安寧者」，處3日以下拘留或3萬元以下罰鍰。
+針對此事件，苓雅分局也呼籲大眾，業者打廣告用創意吸引消費者注意，仍需留意相關規定，貼文內容影響公共安寧恐觸法，切勿以身試法，避免違法受罰。
+原始連結
+看更多 CTWANT 文章國立科大畢業領28K！她高考過秒辭職 前老闆邀回鍋「開這薪水」全網傻眼Ryu發長文揭Yuma先劈腿「10年才出軌應該佩服」 Tommy疑變小王新片被灌爆北捷女擁碩士學歷！畢業論文「研究佛法」卻狠砍高中生 鄰居曝私下為人
 </t>
         </is>
       </c>
@@ -498,24 +497,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>沙烏地阿拉伯下雪了！熱辣沙漠竟成銀白大地 夢幻雪景畫面曝光</t>
+          <t>颱風天兔將生成「可能出現四颱鼎立」！今東北季風增強北東轉雨</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://tw.news.yahoo.com/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%8B%E9%9B%AA%E4%BA%86-%E7%86%B1%E8%BE%A3%E6%B2%99%E6%BC%A0%E7%AB%9F%E6%88%90%E9%8A%80%E7%99%BD%E5%A4%A7%E5%9C%B0-%E5%A4%A2%E5%B9%BB%E9%9B%AA%E6%99%AF%E7%95%AB%E9%9D%A2%E6%9B%9D%E5%85%89-064200367.html</t>
+          <t>https://tw.news.yahoo.com/%E9%A2%B1%E9%A2%A8%E5%A4%A9%E5%85%94%E5%B0%87%E7%94%9F%E6%88%90%E3%80%8C%E5%8F%AF%E8%83%BD%E5%87%BA%E7%8F%BE%E5%9B%9B%E9%A2%B1%E9%BC%8E%E7%AB%8B%E3%80%8D%EF%BC%81%E4%BB%8A%E6%9D%B1%E5%8C%97%E5%AD%A3%E9%A2%A8%E5%A2%9E%E5%BC%B7%E5%8C%97%E6%9D%B1%E8%BD%89%E9%9B%A8-233651049.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">國際中心／王文承報導
-提到沙烏地阿拉伯的沙漠區，需多人都會聯想到烈陽高照和極度乾旱的天氣，然而位於沙烏地西北部的焦夫省（ Al-Jawf）上週竟罕見降雪，原本一片乾旱的沙漠竟變成銀白大地，猶如來到冰雪樂園。
-▲沙烏地阿拉伯的沙漠區，上週竟罕見降雪，原本一片乾旱的沙漠竟變成銀白大地。（圖／翻攝自X）
-根據《每日郵報》報導，沙烏地阿拉伯政府9日在記者會上表示，「自從上週三開始，塞卡凱多地持續出現大雨，伴隨著大量冰雹。土地獲得灌溉，山谷也湧出水流，預告著迷人的春天即將來臨。」
-沙烏地氣象中心對未來數日的氣候發出嚴重警告，氣象中心預測可能會出現雷暴、強降雨、冰雹和強風的天氣狀況。針對這些異常天氣的預警也已發布，提醒人們注意安全，並採取必要的防範措施。
-沙烏地阿拉伯氣溫經常飆破攝氏40度，儘管降雪非常不尋常，但過去也曾在冬天出現降雪與冰雹。2021年，沙烏地氣溫降到攝氏-2度，導致西部的阿西爾（Aseer）出現異常暴風雪。
-事實上，「沙漠下雪」並非前所未見。沙漠氣溫在夜間可能急遽下降，由於空氣中通常沒有足夠水分，因此很少下雪，萬一真的發生，通常也會在隔天清晨融雪。2022年，撒哈拉沙漠降到攝氏0度以下，在降雪融化之後，沙丘留下令人著迷的雪花圖案。
-更多三立新聞網報導石破川普電話會談僅5分鐘 自民黨幹部說明原因雙11飯店業大廝殺！競推好康優惠搶客 單身狗趕緊結伴出遊2024亞洲前10大泡麵排行！台灣占3名額 舒淇油Kiki蔥拌麵上榜感冒「傳染性最強」時間曝！ 醫提醒：口罩帶到這時間
+          <t xml:space="preserve">中央氣象署表示，今天（11日）東北季風增強，北東轉雨，明天天氣如何？氣象署指出，明天到周三清晨（12日到13日）東北季風及桔梗颱風外圍雲系影響，各地陰雨，周三到周四（13到14日）水氣減少、氣溫回升，周五起（15日）水氣再增，降雨程度將視熱帶性低氣壓TD29走勢而定；目前太平洋地區有三個颱風桔梗、萬宜、銀杏，和一個熱帶性低氣壓TD29，雖然可能面對四颱鼎立的局面，但重點應放在桔梗、TD29上。
+目前太平洋地區有三個颱風，和一個熱帶性低氣壓，包括中度颱風桔梗、輕度颱風萬宜、輕度颱風銀杏，以及熱帶性低氣壓TD29。雖然可能面對四颱鼎立的局面，但第24號颱風萬宜、第22號颱風銀杏對台灣已經沒有影響，重點應放在另外兩個熱帶系統TD29、第23號颱風桔梗上。
+第23號颱風「桔梗」，清晨2時位於鵝鑾鼻南南東方740公里之海面上，朝西北西轉西北方向前進，今天會通過呂宋島，周二、周三進入南海，直接影響台灣機率低，不過其外圍雲系周二至周三清晨會讓台灣附近水氣增多；至於關島南方海面的熱帶性低氣壓，未來有發展為輕度颱風「天兔」的趨勢，向西北西方向移動，短期內對台灣天氣沒有影響，後續動向不確定性大，請留意最新天氣預報；位於南海的第22號颱風「銀杏」，未來朝越南移動，而位於關島東北東方海面的第24號颱風「萬宜」，未來移動到關島附近後將減弱為熱帶性低氣壓，這兩個颱風對台灣天氣都沒有影響。
+東北季風影響，今日基隆北海岸及台北山區有局部大雨發生的機率，請注意瞬間大雨，山區慎防坍方及落石。
+氣象署在臉書預報，今天（11日）東北季增強，北東轉雨，氣溫稍轉涼，北北基桃、宜花較易下雨，宜蘭山區有大雨勢，新竹以南及離島多雲到晴。北宜花高溫26到27度、台東28到29度、中南部30度上下，尚屬舒適，各地低溫23到24度。
+明天到周三清晨（12日到13日）東北季風及桔梗颱風外圍雲系影響，北宜整天涼，天氣陰雨，宜花雨勢明顯、桃園以北、台東恆春也陰雨，宜蘭局部大雨豪雨、北海岸及雙北山區防大雨，中南部雲量也增多，南部地區及中部山區零星小雨。北部、台東高溫27、28度、宜花24到26度、中南部29度左右，各地低溫22到23度。
+周三到周四（13到14日）水氣減少、氣溫回升，周三桃園以北、東半部零星雨；周四降雨限縮到東半部，新竹以南地區晴時多雲、天氣穩定。北部、台東高溫28到30度、宜花約26到28度左右、中南部30到31度，氣溫回暖，各地低溫約23、24度。
+周五到周日（15到17日）水氣再增、周日東北季風增強，由於TD29接近菲律賓，台灣這邊水氣也增多，北部、東半部及恆春半島降雨增加、中南部山區也有零星雨，中南部平地多雲為主，雨勢大小仍要視TD（熱帶性低氣壓）動態而定，請持續關注。周五到周六本島高溫約27到30度，較溫暖，周日東北季風增強，北台灣轉涼，各地低溫約23、24度。
+󠀠撰稿：吳怡萱
 </t>
         </is>
       </c>
@@ -526,22 +526,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>詐騙新招還以為真的！一票狂收「交通違規盡快處理」信件</t>
+          <t>失聯移工到案繳不出罰鍰再失聯 衍生治安隱憂</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://tw.news.yahoo.com/%E8%A9%90%E9%A8%99%E6%96%B0%E6%8B%9B%E9%82%84%E4%BB%A5%E7%82%BA%E7%9C%9F%E7%9A%84-%E7%A5%A8%E7%8B%82%E6%94%B6-%E4%BA%A4%E9%80%9A%E9%81%95%E8%A6%8F%E7%9B%A1%E5%BF%AB%E8%99%95%E7%90%86-%E4%BF%A1%E4%BB%B6-011050607.html</t>
+          <t>https://tw.news.yahoo.com/%E5%A4%B1%E8%81%AF%E7%A7%BB%E5%B7%A5%E5%88%B0%E6%A1%88%E7%B9%B3%E4%B8%8D%E5%87%BA%E7%BD%B0%E9%8D%B0%E5%86%8D%E5%A4%B1%E8%81%AF-%E8%A1%8D%E7%94%9F%E6%B2%BB%E5%AE%89%E9%9A%B1%E6%86%82-222841242.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">詐騙案件層出不窮，近日不少許多民眾都收到宣稱來自監理站的詐騙信件，內容聲稱收信人未處理違反交通管理事件，要求在期限內上網繳費，讓不少人誤以為自己違規而慌了手腳。對此，監理所呼籲民眾應多注意，千萬別點選來路不明的連結，避免個人資訊或錢財遭騙取。
-陳志金表示，日前他收到一封署名監理站的信件，內容寫著：「業務中心發現您未處理違反交通管理事件，請於11/07之前盡快處理。」信中還附上線上繳費的操作步驟。陳志金一開始還以為自己不小心違規，心想「我怎麼這麼不小心，到底是超速？違規右轉？還是沒有禮讓行人？真的很丟臉！」擔心會重創個人形象，直到妻子提醒「違你個頭啦！你根本就沒在開車！」這才恍然大悟是詐騙信件。
-陳志金在留言區PO出信件截圖，直呼「有在開車、騎車的朋友，小心詐騙！看寄件地址，就知道是假的！」文章曝光後，不少網友透露，「我也收過呢！開車紀錄不好一度覺得是真的」、「我也剛收到」、「我也有收到，最早是在視網膜那裡看到的」、「我也有收過立馬打電話去監理站查詢」。
-對此，監理所表示，近日收到民眾遭簡訊或網站詐騙的消息，宣稱有「未處理之交通違規」，要求在「24小時內」透過指定的連結繳納，否則將面臨「高額罰款」。臺東監理站強調提醒，此簡訊完全是詐騙，絕非監理所站發送，呼籲民眾應多注意，千萬別點選來路不明的連結，避免個人資訊或錢財遭騙取。
-各區監理所站不會發送簡訊通知「交通違規未繳納」，請勿點擊來源不明的簡訊或連結，以免上當受騙。官方網站請認明「gov.tw」結尾。如有任何疑問，可以撥打165反詐騙專線查詢，亦可向各地區監理所站詢問。
-更多 TVBS 報導桃園突增白底黑字路牌「英文字」看不懂！交通局現身解答了 北投餐廳爆老闆偷吃員工！正宮門口怒貼「出軌照」：小三無恥 疑不明物體撞擊！台鐵列車凌晨「車邊突冒火光」 6車窗破裂 嘉義半個月「地震15次」！9次竟同震央 專家認：有3群震發展
+          <t xml:space="preserve">今年上半年，基隆某派出所警方帶著六名失聯移工到移民署基隆專勤隊投案，驚覺其中三人已在桃園「自首」，卻因繳不起五萬元罰鍰、又無法被收容，遭桃園專勤隊「退貨」後轉向基隆，最後因為二度被退，再度失聯。
+台灣失聯移工數量不斷攀升，「一邊遭退貨、一邊危及治安」情形，正在全國上演。
+遣返冗長人仰馬翻
+本報日前報導失聯移工收容爆量，形成「移工犯罪圈」衍生治安隱憂。進一步追蹤發現，關鍵原因是移民署修正入出國及移民法並於今年三月上路，逾期停留或居留者的行政罰鍰，從原本兩千元到一萬元，提高五倍為一萬元至五萬元。許多移工繳不起罰鍰、加上遣返程序冗長，導致專勤隊人仰馬翻卻事倍功半。
+一名移民署官員說明，過去失聯移工自行到案，準備一萬元罰鍰、近萬元機票，可以迅速遣返；但罰鍰提升到五萬元之後，失聯移工自行投案若繳不出罰金，因不能收容，必須請離後催繳，再不繳交才能註銷自行投案條件，待該移工再次到案，才能以「查處」名義收容。
+「等著被查處」常態化
+在臨時收容所多日後，移民署必須先派人戒護至台北、宜蘭、南投和高雄四所大型收容所，大型收容所再窮盡一切方式進行催繳，再不繳才會依行政罰法建議免罰五萬元；對於繳不出機票費用者，則以就業安定基金協助支付，也讓失聯移工「等著被查處」常態化。
+該官員指出，由於自行到案不用收容，過去每年約有八千人到一萬二千人自行到案，可迅速離境，收容所與專勤隊人力還可應付；但如今失聯移工「等著被查處」已經常態化，不僅大型收容所時常處於「滿水位」狀態，威脅收容安全，臨時收容所也經常爆量收容，遣返程序少說也要三周。
+一名曾逃逸近十年的移工阿宏（化名）告訴記者，以前只要準備一萬元罰鍰，加上六、七千元機票，自行投案就能被遣返；但如今增加到五萬元，繳不起是一回事，更重要的是許多同鄉認為，「反正就算繳不起，最後也回得去」。
+上月有一名來台逾期的印尼女生自行到案，身上沒錢也沒地方住，因為繳不起罰鍰被收容所「退貨」，原本在地民間團體收容她，但沒多久又再度離開。她的媽媽也在台灣工作，卻提繳不出罰鍰，只能再等女兒經過漫長程序，才能進入收容再遣返。
+自行到案人數大減
+移民署統計，去年一到九月總查處人數為二萬九九四人，今年下滑到一萬六九四七人；其中，自行到案人數大幅降低，若從三月修法提高罰鍰計算，三到九月自行到案人數，從去年七七七五人銳減到今年二五九三人。
+內政部移民署副署長陳建成指出，僅賴國安機關查處作為，顯見無法有效解決移工失聯的問題，須由相關引進移工的目的事業主管機關勞動部，依據對產業環境的瞭解，負責研擬防止移工失聯的策略；整體政策仍須透過跨部會合作，共同強化源頭管理機制。
+【看原文連結】
+更多udn報導小姑新婚租不起房 婆婆竟要媳「收回出租房」…她頭痛求救：怎麼辦？日商超強「水垢清潔布」在台上架獲好評 實用效果很兩極市集攤位假轉帳手段猖狂！ 攤主提醒：結帳完別直接放顧客離開啦啦隊女神寫真挑戰雙手捧胸 被爆休息室脫到剩內褲
 </t>
         </is>
       </c>
@@ -552,24 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>赴日注意！沖繩破紀錄暴雨慘況曝 2天灌5個月雨量</t>
+          <t>蓬佩奧遭川普拒邀入閣 首度發文回應</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://tw.news.yahoo.com/%E8%B5%B4%E6%97%A5%E6%B3%A8%E6%84%8F-%E6%B2%96%E7%B9%A9%E7%A0%B4%E7%B4%80%E9%8C%84%E6%9A%B4%E9%9B%A8%E6%85%98%E6%B3%81%E6%9B%9D-2%E5%A4%A9%E7%81%8C5%E5%80%8B%E6%9C%88%E9%9B%A8%E9%87%8F-050354629.html</t>
+          <t>https://tw.news.yahoo.com/%E8%93%AC%E4%BD%A9%E5%A5%A7%E9%81%AD%E5%B7%9D%E6%99%AE%E6%8B%92%E9%82%80%E5%85%A5%E9%96%A3-%E9%A6%96%E5%BA%A6%E7%99%BC%E6%96%87%E5%9B%9E%E6%87%89-223405522.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">日本放送協會（NHK）報導，日本沖繩本島北部受到潮濕空氣流入影響，8日起部分地區遭遇豪雨淹水、道路塌陷。10日上午7時30分起，名護市附近下起暴雨，一小時雨量達110毫米，氣象廳發布「破紀錄短時間大雨情報」，指出部分地區雨量刷新紀錄，呼籲民眾嚴防土石災害。
-NHK報導，國頭村東部清晨5時20分起一小時雨量達120毫米以上。大宜味村清晨5時50分起一小時雨量約為120毫米。此外，截至10日上午9時為止，沖繩縣東村48小時雨量為636.5毫米，刷新觀測紀錄，短短2天的雨量，就達11月總雨量的5倍。
-沖繩氣象局10日上午7時，將沖繩本島北部的洪水災害危險度、淹水危險度升至「警戒5」，要民眾小心水災已經發生。
-大宜味村喜如嘉住宅區7時30分發布「緊急安全確保」，呼籲當地居民採取防災措施。日本避難警報分為5個級別，最高等級第5級的「緊急安全確保」代表災害已經發生，情況危急。
-沖繩縣表示，截至10日上午8時，東村發生3起土石災害、名護市與國頭村則分別發生1起。所幸目前均未傳出有人傷亡。
-截至10日入夜後為止，沖繩縣都可能發生局部大雷雨，氣象廳呼籲民眾留意土石災害、河川暴漲與低窪地區淹水，並且高度戒備打雷、龍捲風、猛烈陣風和冰雹。
-【看原文連結】
-更多udn報導超逼真Apple Pay詐騙信件再起！這操作一失手個資全被騙 蘋果官方也示警不紅了？必勝客歡樂吧僅存1家 網點「原因」：真的沒辦法專心開車「蹦一聲巨響」以為被開槍 玻璃炸裂真相專家傻眼：從沒看過搭飛機沒事做？他分享「消磨時間1神招」 爆4萬人共鳴：我也都這樣
+          <t xml:space="preserve">[NOWnews今日新聞] 美國總統當選人川普9日在社群平台上發文表示，無意找美國前國務卿蓬佩奧（Mike Pompeo）、美國前駐聯合國大使海利（Nikki Haley）入閣。對此，蓬佩奧後續於10日首度發文進行回應。
+蓬佩奧在美東時間10日下午1時30分（台灣時間11日凌晨2時30分）左右，於社群平台X（舊稱推特）上發文，表示「總統先生，我也很榮幸能與您共事。正如您所說，上週我們碰面時，您和我制定了使世界變得更安全並且不會導致新戰爭的計劃。」
+蓬佩奧接續在貼文中指出，「美國堅決拒絕拜登-賀錦麗的外交政策主張。我們有責任再次把美國的利益放在第一位考量。」
+蓬佩奧也在貼文中附上了一段影片，內容有關於當時川普正在造勢現場介紹蓬佩奧的片段。影片中川普向群眾介紹蓬佩奧，表示「蓬佩奧先生，站起來讓大家看看──他看起來好帥！」、「國務卿蓬佩奧，很棒的人」，以及講述他們一起制定外交政策的片段。
+川普9日時在自家創建的社群平台「真實社群（Truth Social）上發文，表示「不會邀請前大使海利（Nikki Haley）或前國務卿蓬佩奧（Mike Pompeo）加入正在籌組的川普政府。」不過川普仍稱「我非常享受並感謝先前與他們的合作，感謝他們為我們國家服務。讓美國再次偉大」。
+更多 NOWnews 今日新聞 報導不用背骨仔？川普不讓蓬佩奧、海利入閣 外媒：忠誠度成任命標準川普新內閣會有誰？友台蓬佩奧或掌五角大廈 盧比歐可望成國務卿遺憾未能保護香港自由 美前國務卿蓬佩奧：盼美為台灣做更多
 </t>
         </is>
       </c>
@@ -580,24 +587,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>颱風天兔最快今晚生成 11月四颱並存將是史上首次</t>
+          <t>李多慧遭跟蹤 落淚報警好害怕</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://tw.news.yahoo.com/%E9%A2%B1%E9%A2%A8%E5%A4%A9%E5%85%94%E6%9C%80%E5%BF%AB%E4%BB%8A%E6%99%9A%E7%94%9F%E6%88%90-11%E6%9C%88%E5%9B%9B%E9%A2%B1%E4%B8%A6%E5%AD%98%E5%B0%87%E6%98%AF%E5%8F%B2%E4%B8%8A%E9%A6%96%E6%AC%A1-035045806.html</t>
+          <t>https://tw.news.yahoo.com/%E6%9D%8E%E5%A4%9A%E6%85%A7%E9%81%AD%E8%B7%9F%E8%B9%A4-%E8%90%BD%E6%B7%9A%E5%A0%B1%E8%AD%A6%E5%A5%BD%E5%AE%B3%E6%80%95-201000873.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">交通部中央氣象署今天（10日）表示，目前海面上已有颱風銀杏、桔梗及萬宜，預估颱風天兔最快晚間可能生成；前一次海面上四颱並存要回溯到1994年10月，但若是11月仍有四颱，將會是史上首次。
-氣象署預報員張承傳在天氣記者會中表示，目前海面上有三個颱風，中度颱風銀杏約在鵝鑾鼻西南西方840公里海面上；輕颱桔梗約在鵝鑾鼻東南方1130公里海面上；輕颱萬宜距離關島東北東方約1300公里。張承傳指出，目前觀察，近期對台灣可能有間接影響的會是桔梗，而銀杏、萬宜預估在72小時內將減弱為熱帶性低氣壓。
-張承傳表示，目前在關島南方有另一個熱性低氣壓正在發展，由於環境適合發展，可能增強為颱風，若成颱，則是今年第25號颱風天兔；後期的路徑仍要視太平洋高壓的勢力而定，現階段預測14日之前會持續朝呂宋島方向前進。
-張承傳告訴中央社記者，天兔預估最快今晚至明天有機會生成，屆時海面上可能會有四個颱風，前一次同時有四個颱風的時間要回溯至1994年10月，分別為泰瑞莎、弗恩、薇爾達、尤瑞；但若是11月仍有四颱並存，將會是史上首次。若是11月仍有三颱共舞，過去曾發生3次，分別在1968、1991、1992年。
-至於未來一周的天氣，張承傳說，明天起東北季風增強，預估持續影響至13日清晨，各地低溫約攝氏23度，北部高溫約24、25度，中南部約30度；明天桃園以北、東北部及東部地區有局部短暫雨，東北部山區並有局部較大雨勢。
-張承傳提到，預計12日、13日受到東北風及颱風桔梗外圍雲系影響，水氣偏多，基隆北海岸、大台北區、東北部地區易有局部大雨，中南部山區有零星短暫雨。
-張承傳說，13日白天起東北季風減弱，預估到下周末北部高溫氣溫可逐漸回升至30度左右；14日水氣偏少，僅中部山區有零星降雨，但15日、16日水氣再增，東半部地區、恆春半島也有局部短暫雨。
-編輯：秦穎雯
+          <t xml:space="preserve">韓籍啦啦隊女神李多慧來台發展，擄獲眾多粉絲，9日結束6天的機車環島挑戰，趕回台北跑行程，卻發現遭人跟蹤，一路尾隨至新北市租屋處附近，令她心生畏懼，發文求助，引發熱議。李多慧在其經紀人陪同下，10日向新北市婦幼警察隊報案。李受訪時數度落淚，仍以笑聲掩飾不安，她強調非常愛台灣，但被跟蹤感到非常害怕和難過。
+新北警方依《跟蹤騷擾防制法》受理，已鎖定1男1女涉案，不排除是某媒體狗仔，近日將通知到案。
+李多慧9日騎機車回台北後，晚間參加「台韓友誼籃球賽」活動，離開時遭白色車輛與不明女子尾隨，跟蹤長達1個多小時。李為避開跟蹤，曾臨時停留在便利店，但對方仍在附近徘徊，令她驚恐不敢回住處。李多慧在社群網站自曝此事，表示「真的好害怕，也好累」，引發關注。
+國民黨立委洪孟楷隨即在臉書發文，呼籲李多慧或經紀公司報警，並警告狗仔若因搶新聞而持續騷擾，恐影響台韓交流關係。
+李多慧昨日赴警局報案。她說，台灣是她第2個故鄉，她非常愛台灣，這次發現有人跟蹤，讓她感到非常害怕，也很難過，所以決定報案。說到一半，李多慧難忍恐懼哭出來，卻又用笑聲試圖掩飾不安，連聲向大家說「不好意思」，令廣大粉絲心碎。
+經歷這次跟蹤事件，李多慧打算搬家。她強調，決定出面報案，是不希望再發生這樣的事，這次和製作人一起環島，製作人是一般人，卻因為她而受傷害，她感到非常抱歉。
+李多慧說，這是她第一次到台灣的警察局，很抱歉讓粉絲擔心了，感謝大家關心。接著，李多慧又露出俏皮的一面，刻意加重語氣說：「我不想再來一次警察局，不要再發生這種事情，好不好！」
+新北婦幼警察隊隊長劉家次說，警方已完成受理報案程序，三重分局也鎖定涉案行為人身分，將積極查緝到案，同時加強當事人住家周邊巡邏，保障當事人安全及隱私。另外，當事人除要求警方對涉案行為人開立書面告誡，也已提出刑事告訴，調查完畢後將一併移送地檢署偵辦。
+據了解，警方清查跟蹤李多慧車輛車牌，已鎖定跟拍李多慧的綠衣女子及駕車男子身分，近日將通知到案說明，不排除是某媒體狗仔。
 </t>
         </is>
       </c>
@@ -608,23 +616,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>北市信義區基隆路路面更新民怨大塞車 新工處：今晚暫停施工</t>
+          <t>美下令台積 停供陸先進晶片</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://tw.news.yahoo.com/%E5%8C%97%E5%B8%82%E4%BF%A1%E7%BE%A9%E5%8D%80%E5%9F%BA%E9%9A%86%E8%B7%AF%E8%B7%AF%E9%9D%A2%E6%9B%B4%E6%96%B0%E6%B0%91%E6%80%A8%E5%A4%A7%E5%A1%9E%E8%BB%8A-%E6%96%B0%E5%B7%A5%E8%99%95%EF%BC%9A%E4%BB%8A%E6%99%9A%E6%9A%AB%E5%81%9C%E6%96%BD%E5%B7%A5-031524598.html</t>
+          <t>https://tw.news.yahoo.com/%E7%BE%8E%E4%B8%8B%E4%BB%A4%E5%8F%B0%E7%A9%8D-%E5%81%9C%E4%BE%9B%E9%99%B8%E5%85%88%E9%80%B2%E6%99%B6%E7%89%87-201000122.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市信義區基隆路二段近期進行路面更新工程，導致沿線車行地下道昨天（9日）晚間大塞車。新工處今天表示，正與警察局、交通局研擬精進作為，優化方案預計明天出爐，方案出爐前今天晚間暫緩施工。
-台北市新建工程處工務科為更新路面，7日起每天晚間11時至隔天凌晨6時，依序封閉基隆路2段（和平東路3段至信義路4段）部分路段車道，施工路段前後路口皆派駐義交引導行駛對向調撥車道。
-不過，民眾黨台北市議員陳宥丞接獲陳情，指基隆路地下道原本短短三分鐘的路程，昨天晚間卻開了一個小時還開不出去，甚至有民眾疑似氣到下車拍打其他車輛洩憤，質疑市府對公共安全風險視而不見。
-新工處工務科中區工務所主任洪辰儒向中央社記者表示，因為7、8日施工時車流狀況尚屬正常，研判昨天是因為周邊百貨公司周年慶讓假日車潮劇增，才會造成民眾困擾，已與警察局、交通局討論如何改善。
-洪辰儒說，優化方案預計明天出爐，不排除調整工期避開假日，或延後假日進場時間等，但在確認作法之前，今天先暫停施工，希望透過道路銑鋪增加所有用路人行車安全性及舒適度的同時，盡量減少影響民眾。
-交通局說明，昨天施工單位封閉基隆路南往北方向車道，剩餘車道做雙向調撥管制，所以道路容量剩下一半，交通局已透過資訊可變標誌（CMS）提醒並調整號誌秒數，仍因夜間人潮眾多導致壅塞，建議施工單位加強宣傳改道，做好車輛分流。
-編輯：秦穎雯
+          <t xml:space="preserve">路透9日報導稱知情人士透露，美國政府下令台積電11日起立即停止向大陸企業供應7奈米或更先進晶片。台積電低調表示，作為守法的公司，一向致力於遵循所有可適用的法令與法規，包括可適用的出口管制法規。
+外媒指出，最新禁令源於台積電10月主動向美方通報在華為處理器中發現旗下產品。當時第三方研究機構拆解華為昇騰910B處理器，驚見內部採用台積電7奈米晶片，違反美國出口管制規定，台積電聞訊隨即通報美商務部，並暫停供貨給特定客戶。
+美方消息來源稱，台積電已依據商務部要求通知相關客戶，自11日暫停出貨。本次美方對台積電發出的「知情信件」在出口管制政策屬特殊形式，無須經冗長的法規制定程序，即可對特定公司快速施加許可要求，進一步強化美方出口管制的靈活性。
+此外，路透10月報導，台積電已停止對陸企算能科技（SophGo）出貨。算能科技使用的晶片與華為處理器中的7奈米晶片相似，美懷疑存違規風險。
+此外，川普主張美國製造，推動關稅保護主義，巿場專家直言，恐引發中美貿易戰後第二波供應鏈移轉，廣達、緯創、英業達、和碩等電子五哥已在選前部署，分別在美國、東南亞、墨西哥、歐洲等地擴大投資或新建廠房。其中廣達透露，其美國廠開始試產搭載輝達GB200晶片的AI伺服器，在整體AI伺服器產能滿載下，計畫在美國進一步擴產。
+南山人壽董事長尹崇堯10日表示，AI發展的可持續性比過去預期好，台灣是AI科技重要促成者，不論是晶片或伺服器，都持續提供重要的技術與基礎建設。
 </t>
         </is>
       </c>
@@ -635,22 +642,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>公視報導稱川普重刑犯 李遠：很嚴重</t>
+          <t>華郵：與蒲亭通話談烏克蘭戰爭 川普曾提土地問題</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://tw.news.yahoo.com/%E5%85%AC%E8%A6%96%E5%A0%B1%E5%B0%8E%E7%A8%B1%E5%B7%9D%E6%99%AE%E9%87%8D%E5%88%91%E7%8A%AF-%E6%9D%8E%E9%81%A0-%E5%BE%88%E5%9A%B4%E9%87%8D-220714509.html</t>
+          <t>https://tw.news.yahoo.com/%E8%8F%AF%E9%83%B5-%E8%88%87%E8%92%B2%E4%BA%AD%E9%80%9A%E8%A9%B1%E8%AB%87%E7%83%8F%E5%85%8B%E8%98%AD%E6%88%B0%E7%88%AD-%E5%B7%9D%E6%99%AE%E6%9B%BE%E6%8F%90%E5%9C%9F%E5%9C%B0%E5%95%8F%E9%A1%8C-221100921.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">美國總統大選結果出爐，前總統川普確定重返白宮，不料在公視「TaiwanPlus」報導中，提到川普時卻稱其為「重刑犯」，引發爭議。對此，文化部長李遠表示，這件事情確實很嚴重，文化部已在第一時間就轉告公共電視集團，新聞在經過評議以後也馬上下架。
-公視TaiwanPlus在一系列美選的報導被發現，有委外記者在鏡頭前說出「這次選舉將會成為一個歷史時刻，美國人到底會選出一個女性總統，還是一個被定罪的重刑犯？看來美國選擇了重刑犯」。
-李遠解釋，公共電視集團是獨立經營，文化部在第一時間就提醒此事的嚴重性，在經過公視內部的評議，最後也將新聞下架。李遠也坦言，這件事情是嚴重的，所以公視也在第一時間下架後會開評議，討論這則新聞內容的嚴重性。
-公視則發聲明表示，TaiwanPlus將即刻啟動內部機制，檢討審視採訪規劃作業與核稿程序。
-【看原文連結】
-更多udn報導北一女學霸升格五寶媽 哺乳雙胞胎畫面曝光絕佳機位甭搶？達人1招逆向操作成功率9成去日本玩別再「洋蔥式穿搭」 內行曝正解「最懂事女友」在台灣！超爆美胸上衣包不住
+          <t xml:space="preserve">（中央社華盛頓10日綜合外電報導）「華盛頓郵報」今天引述知情人士報導，美國總統當選人川普7日與俄羅斯總統蒲亭通電話，就烏克蘭戰爭進行商討。知情人士指出，川普當時曾經簡略提出土地的問題。
+路透社引述「華盛頓郵報」（The Washington Post）報導，川普建議蒲亭（Vladimir Putin）不要讓在烏克蘭的戰事升級，提醒他「華府在歐洲的軍事部署規模可觀」。
+法新社報導，川普在他的佛羅里達州海湖俱樂部（Mar-a-Lago）進行這項通話。川普的代表沒有立即回覆法新社置評請求。
+根據華郵報導，消息人士表示，川普也向蒲亭表達有意進一步對話，「儘早就烏克蘭戰爭的解決方案」進行商討。
+川普於選戰期間曾表示，他將「於一天之內」找出結束這場戰爭的解方，但是沒有解釋將如何做到。
+根據媒體報導，川普6日也曾跟烏克蘭總統澤倫斯基（Volodymyr Zelenskyy）通話。
+克里姆林宮8日表示，蒲亭準備好跟川普針對烏克蘭問題進行商討，但不表示他願意改變莫斯科所提要求。
+蒲亭於6月14日開出讓他結束戰爭的條件，包括烏克蘭必須放棄加入北大西洋公約組織（NATO）的抱負，並且從已經遭到俄羅斯吞併的4個州撤出所有烏軍。
+烏克蘭拒絕相關要求，強調那等於投降。與此同時，澤倫斯基提出的「勝利計畫」，內容涵蓋要求西方提供額外軍事援助。
+外界預期，基輔勢必得割讓南部和東部若干已遭莫斯科占領的領土，才有可能很快達成任何協議。
+知情人士指出，川普7日跟蒲亭通話時曾經簡略提出土地的問題。（譯者：何宏儒）1131111
 </t>
         </is>
       </c>
@@ -661,23 +673,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>川普：不會邀請前駐聯大使海利及前國務卿蓬佩奧入閣</t>
+          <t>石破茂恭賀川普勝選「通話僅5分鐘」 自民黨幹部曝原因：首相體諒川普</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://tw.news.yahoo.com/%E5%B7%9D%E6%99%AE%EF%BC%9A%E4%B8%8D%E6%9C%83%E9%82%80%E8%AB%8B%E5%89%8D%E9%A7%90%E8%81%AF%E5%A4%A7%E4%BD%BF%E6%B5%B7%E5%88%A9%E5%8F%8A%E5%89%8D%E5%9C%8B%E5%8B%99%E5%8D%BF%E8%93%AC%E4%BD%A9%E5%A5%A7%E5%85%A5%E9%96%A3-025721945.html</t>
+          <t>https://tw.news.yahoo.com/%E7%9F%B3%E7%A0%B4%E8%8C%82%E6%81%AD%E8%B3%80%E5%B7%9D%E6%99%AE%E5%8B%9D%E9%81%B8-%E9%80%9A%E8%A9%B1%E5%83%855%E5%88%86%E9%90%98-%E8%87%AA%E6%B0%91%E9%BB%A8%E5%B9%B9%E9%83%A8%E6%9B%9D%E5%8E%9F%E5%9B%A0-%E9%A6%96%E7%9B%B8%E9%AB%94%E8%AB%92%E5%B7%9D%E6%99%AE-222717835.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">美國共和黨總統當選人川普9日晚間透過社群媒體宣布，他不會邀請前駐聯合國大使海利、前國務卿蓬佩奧入閣。這兩位曾短暫動搖對川普的忠誠度，也比其他前川普政府官員更晚表態挺川。川普於社群平台Truth Social中寫道，「我非常享受並感謝先前與他們的合作，感謝他們為我們國家服務。讓美國再次偉大」。
-美國政治新聞媒體Politico指出，川普這項聲明顯示忠誠度對川普2.0人事安排的重要性。海利（Nikki Haley）今年與川普競爭總統提名。蓬佩奧（Mike Pompeo）曾考慮今年選總統，但最終選擇不與川普爭共和黨提名。
-目前還不清楚海利是否正爭取於川普第二任政府中任職。但Politico報導，兩名知情人士表示，幫川普打選戰的蓬佩奧努力爭取國防部長一職。這兩人說，蓬佩奧想出任國防部長，受到川普親密盟友的強烈反對，包括他的兒子小唐納（Donald Trump Jr.）及前福斯新聞（Fox News）主持人卡爾森（Tucker Carlson）。
-一位前川普政府高階官員表示，「有人希望不要讓那些有總統野心的人」利用川普的內閣職位作為跳板。川普之前被蓬佩奧及海利傷害過，蓬佩奧的外交政策觀點與川普不一致。
-長期以來，蓬佩奧一直是川普2.0的可能國防部長人選之一，當強硬國防鷹派、參議員柯頓（Tom Cotton）這周宣布不會考慮入閣後，蓬佩奧一度成為熱門人選。
-Politico指出，眾議員瓦爾茲（Michael Waltz）及羅傑斯（Mike Rogers）也是國防部長可能人選。瓦爾茲是前綠扁帽成員，經常在有線電視新聞上為川普辯護。黑馬羅傑斯則是聯邦眾議院軍事委員會主席。
-編輯：秦穎雯
+          <t xml:space="preserve">川普將再度入主白宮，近期也接到各國領袖致電恭賀。日本媒體統計，在已公開的各國領袖致電川普道賀紀錄中，日本首相石破茂和川普通話僅五分鐘，時間最短。
+日本產經新聞報導，自民黨政調會長小野寺五典10日在富士電視台說明原因。他說：「川普當時還想和石破首相多聊聊，但首相考慮到川普是臨時從一場會議離席接聽電話，體諒川普的狀況，讓他早點回到會議中。」
+小野寺也指出，川普可能提高日本汽車進口美國的關稅。他說，「重點是讓川普重新認識到，日本是盟國，和競爭對手中國不同」。關於日本負擔駐日美軍費用，小野寺則說，「有被要求支付可觀金額的風險」。
+【看原文連結】
+更多udn報導小姑新婚租不起房 婆婆竟要媳「收回出租房」…她頭痛求救：怎麼辦？日商超強「水垢清潔布」在台上架獲好評 實用效果很兩極市集攤位假轉帳手段猖狂！ 攤主提醒：結帳完別直接放顧客離開啦啦隊女神寫真挑戰雙手捧胸 被爆休息室脫到剩內褲
 </t>
         </is>
       </c>

--- a/11-11/yahooNews.xlsx
+++ b/11-11/yahooNews.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,22 +445,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>屏東凌晨發生火警 30歲男現場失去生命跡象「送醫搶救仍不治」</t>
+          <t>屏東市透天厝火警6傷1死 男子疑為救貓回火場送醫不治</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://tw.news.yahoo.com/%E5%B1%8F%E6%9D%B1%E5%87%8C%E6%99%A8%E7%99%BC%E7%94%9F%E7%81%AB%E8%AD%A6-30%E6%AD%B2%E7%94%B7%E7%8F%BE%E5%A0%B4%E5%A4%B1%E5%8E%BB%E7%94%9F%E5%91%BD%E8%B7%A1%E8%B1%A1-%E9%80%81%E9%86%AB%E6%90%B6%E6%95%91%E4%BB%8D%E4%B8%8D%E6%B2%BB-002900559.html</t>
+          <t>https://tw.news.yahoo.com/%E5%B1%8F%E6%9D%B1%E5%B8%82%E9%80%8F%E5%A4%A9%E5%8E%9D%E7%81%AB%E8%AD%A66%E5%82%B71%E6%AD%BB-%E7%94%B7%E5%AD%90%E7%96%91%E7%82%BA%E6%95%91%E8%B2%93%E5%9B%9E%E7%81%AB%E5%A0%B4%E9%80%81%E9%86%AB%E4%B8%8D%E6%B2%BB-004918987.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">[FTNN新聞網]記者洪宗荃／綜合報導
-屏東縣屏東市今（11）日凌晨傳出火警，位於崇明四街的一棟5層樓住宅，於清晨4時20分發生火災，警消獲報後，隨即趕往現場進行救援，其中也成功救出6名民眾，其中有一名30歲男子在救出後，現場已無生命跡象，送醫搶救後仍宣告不治，初步了解，該名男子疑似已經逃出，但為了救貓才冒險返回，結果被嗆昏在3樓陽台。
-根據了解，屏東縣消防局於今晨4時20分，獲報屏東市崇明四街的住宅發生火警後，並初步得知可能有民眾受困於建築頂樓，消防局也出動共計19車38人前往救援，並由第一大隊副大隊長楊景雄帶隊指揮。
-而在經過救援之後，消防人員於上午5點左右，將5名民眾成功救出，情況均為意識清醒，但有出現嗆傷症狀，而後續也將一名31歲男子、一名59歲女子送往寶建醫院，一名58歲男子、一名17歲男子、一名70歲女子送往屏榮醫院就醫。
-此外，消防人員也在搜救過程中，於三樓發現一名30歲男子，已無生命跡象（OHCA），消防人員也於上午5點29分，將該男子送往寶建醫院進行緊急搶救，但仍不幸宣告不治；而該起火災也於上午5點33分時撲滅，而詳細起火原因，仍待調查釐清。
-更多FTNN新聞網報導國3南下交流道爆「6車追撞」！新竹香山段一度全線封閉...2傷者送醫不治屏東火警旁傳「恐怖爆炸聲、連房子都在震」元凶竟是它！警：將依法裁處屏東KTV鬥毆爆「陸海空軍人」涉入！持刀殺害海陸隊員...陸軍士兵被聲押禁見
+          <t xml:space="preserve">屏東縣政府消防局今天表示，屏東縣屏東市崇明四街某棟透天厝凌晨4時許火警，火勢約1小時後撲滅。現場救出2戶共7名民眾，其中6名嗆傷、意識清楚，1名30歲男子疑為救貓衝回火場，救出後送醫不治。
+屏東縣政府消防局表示，起火地點為連棟透天厝，共救出2戶7人，其中6人嗆傷、意識清楚，1人OHCA（到院前心肺功能停止），送往寶建醫院急救仍不治。
+消防局指出，發生火警透天厝吳姓1家4口，消防到場時吳父已脫困，其妻與2子在頂樓待援，吳父告訴消防人員，30歲二兒子疑為救貓，待援時衝回火場；消防人員後續在3樓房間陽台發現吳家二兒子，OHCA送醫不治。
+消防局表示，連棟透天隔壁棟1戶3名民眾，皆濃煙嗆傷但意識清楚，已送醫。
+消防局今天凌晨4時20分接獲屏東市崇明四街一棟透天厝5樓火警，派遣屏東、屏二、麟洛、長治、特搜、九如、萬丹及第一大隊，共計出動19車38人；火勢於5時33分撲滅，確切起火原因後續交由火調人員調查。
 </t>
         </is>
       </c>
@@ -486,7 +485,7 @@
 這篇全網協尋貼文立刻在網上瘋傳，網友也好奇甚至想起身行動找行李袋。不過高雄苓雅警方很快聯絡到貼文者，一問之下才知道協尋文只是賣車廣告，PO文的業者已經到案說明；警方指出，全案將依違反社會秩序維護法第63條第1項第5款，「散佈謠言，足以影響公共之安寧者」，處3日以下拘留或3萬元以下罰鍰。
 針對此事件，苓雅分局也呼籲大眾，業者打廣告用創意吸引消費者注意，仍需留意相關規定，貼文內容影響公共安寧恐觸法，切勿以身試法，避免違法受罰。
 原始連結
-看更多 CTWANT 文章國立科大畢業領28K！她高考過秒辭職 前老闆邀回鍋「開這薪水」全網傻眼Ryu發長文揭Yuma先劈腿「10年才出軌應該佩服」 Tommy疑變小王新片被灌爆北捷女擁碩士學歷！畢業論文「研究佛法」卻狠砍高中生 鄰居曝私下為人
+看更多 CTWANT 文章27歲霸總熱戀45歲清潔工阿姨！長輩「2月砸4萬」看狗血短劇 官方出手了國立科大畢業領28K！她高考過秒辭職 前老闆邀回鍋「開這薪水」全網傻眼Ryu發長文揭Yuma先劈腿「10年才出軌應該佩服」 Tommy疑變小王新片被灌爆
 </t>
         </is>
       </c>
@@ -497,15 +496,67 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>機車進待轉區要打方向燈？兩派人吵翻！交通部給正解</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://tw.news.yahoo.com/%E6%A9%9F%E8%BB%8A%E9%80%B2%E5%BE%85%E8%BD%89%E5%8D%80%E8%A6%81%E6%89%93%E6%96%B9%E5%90%91%E7%87%88-%E5%85%A9%E6%B4%BE%E4%BA%BA%E5%90%B5%E7%BF%BB-%E4%BA%A4%E9%80%9A%E9%83%A8%E7%B5%A6%E6%AD%A3%E8%A7%A3-234301088.html</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">依規定機車騎士須遵守「兩段式左轉」，進入機車待轉區，一名女子表示，騎車要進入待轉區的右側，因沒打方向燈引來後方的騎士不滿，她委屈地上網發文抱怨，文章引起熱議，機車族分成兩派，一派人認為要打，另一派人則說不需要，對此交通部指出，機車進入待轉區只需減速，顯示煞車燈即可。
+原PO近日於Dcard指出，上周一（4日）下班騎車回家，在一個大路口要往待轉區，她騎進待轉區的右側，遭後方要進入待轉區的機車騎士破口大罵，「小姐，打方向燈好嗎？為什麼不打？」她感到非常委屈，「進入待轉區本來就不需要打方向燈，好嗎？」
+貼文激起機車族熱議，「我還是會打，因為妳不會知道路上的人，是不是正常人」、「之前去考駕照有特別問考官，他說不用打」、「當初我上駕訓班，就規定要打方向燈」、「看過一堆要待轉，然後打左邊方向燈的三寶」。
+交通部曾表示，機車進入待轉區只需減速並顯示煞車燈，不需要打方向燈。另根據《道路交通安全規則》第91條及第94條，煞車燈是減速訊號，方向燈是變換車道的時使用。
+更多中時新聞網報導金控10月獲利不藏私 12家大公開 中信金、元大金暫稱王北捷砍人婦遭起底 高雄北漂...碩士論文「研究佛法」 鄰居曝日常為人考5A也擠不進！台灣最強高中 94.8％上國立醫學類科系
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>川普感謝貢獻卻未邀入閣 龐培歐、海莉最新回應曝光</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://tw.news.yahoo.com/%E5%B7%9D%E6%99%AE%E6%84%9F%E8%AC%9D%E8%B2%A2%E7%8D%BB%E5%8D%BB%E6%9C%AA%E9%82%80%E5%85%A5%E9%96%A3-%E9%BE%90%E5%9F%B9%E6%AD%90-%E6%B5%B7%E8%8E%89%E6%9C%80%E6%96%B0%E5%9B%9E%E6%87%89%E6%9B%9D%E5%85%89-010200266.html</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">即時中心／梁博超報導
+川普將以「完全執政」開啟第47屆美國總統任期，新內閣名單備受矚目；不過川普9日在社群平台發文宣布，以挺台灣立場著稱的前國務卿龐培歐（Mike Pompeo）與前駐聯合國大使海莉（Nikki Haley），不會受邀加入新政府。對此，龐培歐與海莉皆對此做出回應。
+川普昨日在「真實社群」（Truth Social）表示，將不會邀請前國務卿龐培歐和前駐聯大使海莉兩人入閣；川普指出，自己非常喜歡、並感謝過去曾與他們合作過，也謝謝兩人為國家的付出。
+川普貼文一出，旋即引發多方議論。龐培歐在Ｘ發文回應，表示自己也很榮幸曾與川普共事，「正如你所說，當我們上週在一起時，你和我制定了一個使世界變得更安全、且不會導致新戰爭的計劃。」他也呼應川普，強調美國堅決地拒絕「拜登-哈里斯」的外交政策，「我們有責任再次把美國放在第一位」。
+海莉也發文指出，她很自豪能夠與川普一起在聯合國捍衛美國。「我祝福他和所有為國效力的人，在未來4年任期裡能取得巨大成功，推動我們邁向一個更強大、更安全的美國。」
+原文出處：快新聞／川普感謝貢獻卻未邀入閣 龐培歐、海莉最新回應曝光
+更多民視新聞報導挺台大將少1人？ 川普今證實：前國務卿龐培歐不會加入下屆政府重返白宮！ 川普13日將赴橢圓形辦公室與拜登會面應拜登邀請 川普將赴白宮展開政權和平交接
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>颱風天兔將生成「可能出現四颱鼎立」！今東北季風增強北東轉雨</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://tw.news.yahoo.com/%E9%A2%B1%E9%A2%A8%E5%A4%A9%E5%85%94%E5%B0%87%E7%94%9F%E6%88%90%E3%80%8C%E5%8F%AF%E8%83%BD%E5%87%BA%E7%8F%BE%E5%9B%9B%E9%A2%B1%E9%BC%8E%E7%AB%8B%E3%80%8D%EF%BC%81%E4%BB%8A%E6%9D%B1%E5%8C%97%E5%AD%A3%E9%A2%A8%E5%A2%9E%E5%BC%B7%E5%8C%97%E6%9D%B1%E8%BD%89%E9%9B%A8-233651049.html</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">中央氣象署表示，今天（11日）東北季風增強，北東轉雨，明天天氣如何？氣象署指出，明天到周三清晨（12日到13日）東北季風及桔梗颱風外圍雲系影響，各地陰雨，周三到周四（13到14日）水氣減少、氣溫回升，周五起（15日）水氣再增，降雨程度將視熱帶性低氣壓TD29走勢而定；目前太平洋地區有三個颱風桔梗、萬宜、銀杏，和一個熱帶性低氣壓TD29，雖然可能面對四颱鼎立的局面，但重點應放在桔梗、TD29上。
 目前太平洋地區有三個颱風，和一個熱帶性低氣壓，包括中度颱風桔梗、輕度颱風萬宜、輕度颱風銀杏，以及熱帶性低氣壓TD29。雖然可能面對四颱鼎立的局面，但第24號颱風萬宜、第22號颱風銀杏對台灣已經沒有影響，重點應放在另外兩個熱帶系統TD29、第23號颱風桔梗上。
@@ -520,21 +571,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>日相石破茂宣布內閣總辭 如「特別國會」選舉勝出將公布新內閣名單</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://tw.news.yahoo.com/%E6%97%A5%E7%9B%B8%E7%9F%B3%E7%A0%B4%E8%8C%82%E5%AE%A3%E5%B8%83%E5%85%A7%E9%96%A3%E7%B8%BD%E8%BE%AD-%E5%A6%82-%E7%89%B9%E5%88%A5%E5%9C%8B%E6%9C%83-%E9%81%B8%E8%88%89%E5%8B%9D%E5%87%BA%E5%B0%87%E5%85%AC%E5%B8%83%E6%96%B0%E5%85%A7%E9%96%A3%E5%90%8D%E5%96%AE-003912524.html</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[周刊王CTWANT] 日本首相石破茂在11日內閣會議後，內閣成員統一提交閣僚辭呈，宣佈內閣總辭。而日本國會也將在11日進行「特別國會」的首相指名選舉，石破茂有望在第二階段投票中勝出，繼續連任日本首相。如石破茂順利連任，預計在11日晚間就會公布新任閣揆名單。
+根據日本媒體報導指出，日本國會將於11日下午舉行首相指名選舉。但由於自民黨和公明黨組成的執政聯盟在本次選舉中並未拿下過半席次，因此預計第一輪投票是無法順利取得結果，勢必要進入到第二輪投票中，屆時將由自民黨總裁石破茂和立憲民主黨代表野田佳彥進行對決。
+而根據目前情勢來看，目前在野黨還無法完全統一投票意向，日本維新會與國民民主黨已表態在兩輪投票中都不會支持野田佳彥。再加上第二輪投票中並不需要取得半數同意，只要票數多就能勝選，因此石破茂在第二輪選舉中勝出、獲得連任的可能性十分的大。如順利連任，這也讓石破茂成為日本第103任內閣總理大臣。
+如石破茂順利連任日本首相，預計在11日晚間就會成立第二次石破內閣，屆時正式名單也會公之於眾。但目前有消息指出，第二次內閣成員與第一次內閣成員有所變動，農林水產大臣改由江藤拓接任，法務大臣則由鈴木馨祐接任，國土交通大臣則由中野洋昌接任，其餘閣員皆保留原職。
+原始連結
+看更多 CTWANT 文章越南妻回家鄉3年「改吃素」不返台 他心死離婚了父母離世後…她回老家整理遺物 卻遭大嫂狠嗆：不知廉恥！結局神展開鄰居賣車位！喊出13萬超甜價 網見「奇葩停車格」笑了：怎麼停進去？
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>以色列認了！真主黨呼叫器連環爆事件 納坦雅胡承認批准發動攻擊</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://tw.news.yahoo.com/%E4%BB%A5%E8%89%B2%E5%88%97%E8%AA%8D%E4%BA%86%EF%BC%81%E7%9C%9F%E4%B8%BB%E9%BB%A8%E5%91%BC%E5%8F%AB%E5%99%A8%E9%80%A3%E7%92%B0%E7%88%86%E4%BA%8B%E4%BB%B6-%E7%B4%8D%E5%9D%A6%E9%9B%85%E8%83%A1%E6%89%BF%E8%AA%8D%E6%89%B9%E5%87%86%E7%99%BC%E5%8B%95%E6%94%BB%E6%93%8A-013803594.html</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9月中旬，黎巴嫩武裝組織真主黨成員使用的手持通訊裝置連續兩天在超市、街道和葬禮中爆炸。以色列總理納坦雅胡（Benjamin Netanyahu）10日承認，他批准了這場致命攻擊。這是以色列首次承認參與其中。
+在此之前，真主黨（Hezbollah）曾指責宿敵以色列發動這起爆炸事件，對這個獲伊朗撐腰的組織造成重大打擊，並矢言報復。納坦雅胡的發言人杜斯崔（Omer Dostri）對法新社講述這起攻擊事件時表示：「納坦雅胡今天證實，他批准了在黎巴嫩引爆呼叫器的行動。」
+在以色列對黎巴嫩持續採取軍事行動之前，這場攻擊造成近40人死亡、近3000人受傷。
+真主黨盟友、巴勒斯坦伊斯蘭主義組織哈瑪斯（Hamas）去年10月7日突襲以色列並引發加薩戰爭後，真主黨開始對以色列進行低強度攻擊，以支持哈瑪斯。
+自9月下旬以來，以色列對真主黨發動猛烈空襲，隨後又向黎巴嫩南部派遣地面部隊，進一步加劇中東情勢。
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>失聯移工到案繳不出罰鍰再失聯 衍生治安隱憂</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://tw.news.yahoo.com/%E5%A4%B1%E8%81%AF%E7%A7%BB%E5%B7%A5%E5%88%B0%E6%A1%88%E7%B9%B3%E4%B8%8D%E5%87%BA%E7%BD%B0%E9%8D%B0%E5%86%8D%E5%A4%B1%E8%81%AF-%E8%A1%8D%E7%94%9F%E6%B2%BB%E5%AE%89%E9%9A%B1%E6%86%82-222841242.html</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">今年上半年，基隆某派出所警方帶著六名失聯移工到移民署基隆專勤隊投案，驚覺其中三人已在桃園「自首」，卻因繳不起五萬元罰鍰、又無法被收容，遭桃園專勤隊「退貨」後轉向基隆，最後因為二度被退，再度失聯。
 台灣失聯移工數量不斷攀升，「一邊遭退貨、一邊危及治安」情形，正在全國上演。
@@ -555,76 +657,21 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>蓬佩奧遭川普拒邀入閣 首度發文回應</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://tw.news.yahoo.com/%E8%93%AC%E4%BD%A9%E5%A5%A7%E9%81%AD%E5%B7%9D%E6%99%AE%E6%8B%92%E9%82%80%E5%85%A5%E9%96%A3-%E9%A6%96%E5%BA%A6%E7%99%BC%E6%96%87%E5%9B%9E%E6%87%89-223405522.html</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[NOWnews今日新聞] 美國總統當選人川普9日在社群平台上發文表示，無意找美國前國務卿蓬佩奧（Mike Pompeo）、美國前駐聯合國大使海利（Nikki Haley）入閣。對此，蓬佩奧後續於10日首度發文進行回應。
-蓬佩奧在美東時間10日下午1時30分（台灣時間11日凌晨2時30分）左右，於社群平台X（舊稱推特）上發文，表示「總統先生，我也很榮幸能與您共事。正如您所說，上週我們碰面時，您和我制定了使世界變得更安全並且不會導致新戰爭的計劃。」
-蓬佩奧接續在貼文中指出，「美國堅決拒絕拜登-賀錦麗的外交政策主張。我們有責任再次把美國的利益放在第一位考量。」
-蓬佩奧也在貼文中附上了一段影片，內容有關於當時川普正在造勢現場介紹蓬佩奧的片段。影片中川普向群眾介紹蓬佩奧，表示「蓬佩奧先生，站起來讓大家看看──他看起來好帥！」、「國務卿蓬佩奧，很棒的人」，以及講述他們一起制定外交政策的片段。
-川普9日時在自家創建的社群平台「真實社群（Truth Social）上發文，表示「不會邀請前大使海利（Nikki Haley）或前國務卿蓬佩奧（Mike Pompeo）加入正在籌組的川普政府。」不過川普仍稱「我非常享受並感謝先前與他們的合作，感謝他們為我們國家服務。讓美國再次偉大」。
-更多 NOWnews 今日新聞 報導不用背骨仔？川普不讓蓬佩奧、海利入閣 外媒：忠誠度成任命標準川普新內閣會有誰？友台蓬佩奧或掌五角大廈 盧比歐可望成國務卿遺憾未能保護香港自由 美前國務卿蓬佩奧：盼美為台灣做更多
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>李多慧遭跟蹤 落淚報警好害怕</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://tw.news.yahoo.com/%E6%9D%8E%E5%A4%9A%E6%85%A7%E9%81%AD%E8%B7%9F%E8%B9%A4-%E8%90%BD%E6%B7%9A%E5%A0%B1%E8%AD%A6%E5%A5%BD%E5%AE%B3%E6%80%95-201000873.html</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">韓籍啦啦隊女神李多慧來台發展，擄獲眾多粉絲，9日結束6天的機車環島挑戰，趕回台北跑行程，卻發現遭人跟蹤，一路尾隨至新北市租屋處附近，令她心生畏懼，發文求助，引發熱議。李多慧在其經紀人陪同下，10日向新北市婦幼警察隊報案。李受訪時數度落淚，仍以笑聲掩飾不安，她強調非常愛台灣，但被跟蹤感到非常害怕和難過。
-新北警方依《跟蹤騷擾防制法》受理，已鎖定1男1女涉案，不排除是某媒體狗仔，近日將通知到案。
-李多慧9日騎機車回台北後，晚間參加「台韓友誼籃球賽」活動，離開時遭白色車輛與不明女子尾隨，跟蹤長達1個多小時。李為避開跟蹤，曾臨時停留在便利店，但對方仍在附近徘徊，令她驚恐不敢回住處。李多慧在社群網站自曝此事，表示「真的好害怕，也好累」，引發關注。
-國民黨立委洪孟楷隨即在臉書發文，呼籲李多慧或經紀公司報警，並警告狗仔若因搶新聞而持續騷擾，恐影響台韓交流關係。
-李多慧昨日赴警局報案。她說，台灣是她第2個故鄉，她非常愛台灣，這次發現有人跟蹤，讓她感到非常害怕，也很難過，所以決定報案。說到一半，李多慧難忍恐懼哭出來，卻又用笑聲試圖掩飾不安，連聲向大家說「不好意思」，令廣大粉絲心碎。
-經歷這次跟蹤事件，李多慧打算搬家。她強調，決定出面報案，是不希望再發生這樣的事，這次和製作人一起環島，製作人是一般人，卻因為她而受傷害，她感到非常抱歉。
-李多慧說，這是她第一次到台灣的警察局，很抱歉讓粉絲擔心了，感謝大家關心。接著，李多慧又露出俏皮的一面，刻意加重語氣說：「我不想再來一次警察局，不要再發生這種事情，好不好！」
-新北婦幼警察隊隊長劉家次說，警方已完成受理報案程序，三重分局也鎖定涉案行為人身分，將積極查緝到案，同時加強當事人住家周邊巡邏，保障當事人安全及隱私。另外，當事人除要求警方對涉案行為人開立書面告誡，也已提出刑事告訴，調查完畢後將一併移送地檢署偵辦。
-據了解，警方清查跟蹤李多慧車輛車牌，已鎖定跟拍李多慧的綠衣女子及駕車男子身分，近日將通知到案說明，不排除是某媒體狗仔。
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>美下令台積 停供陸先進晶片</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://tw.news.yahoo.com/%E7%BE%8E%E4%B8%8B%E4%BB%A4%E5%8F%B0%E7%A9%8D-%E5%81%9C%E4%BE%9B%E9%99%B8%E5%85%88%E9%80%B2%E6%99%B6%E7%89%87-201000122.html</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">路透9日報導稱知情人士透露，美國政府下令台積電11日起立即停止向大陸企業供應7奈米或更先進晶片。台積電低調表示，作為守法的公司，一向致力於遵循所有可適用的法令與法規，包括可適用的出口管制法規。
 外媒指出，最新禁令源於台積電10月主動向美方通報在華為處理器中發現旗下產品。當時第三方研究機構拆解華為昇騰910B處理器，驚見內部採用台積電7奈米晶片，違反美國出口管制規定，台積電聞訊隨即通報美商務部，並暫停供貨給特定客戶。
@@ -636,21 +683,21 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>華郵：與蒲亭通話談烏克蘭戰爭 川普曾提土地問題</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://tw.news.yahoo.com/%E8%8F%AF%E9%83%B5-%E8%88%87%E8%92%B2%E4%BA%AD%E9%80%9A%E8%A9%B1%E8%AB%87%E7%83%8F%E5%85%8B%E8%98%AD%E6%88%B0%E7%88%AD-%E5%B7%9D%E6%99%AE%E6%9B%BE%E6%8F%90%E5%9C%9F%E5%9C%B0%E5%95%8F%E9%A1%8C-221100921.html</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">（中央社華盛頓10日綜合外電報導）「華盛頓郵報」今天引述知情人士報導，美國總統當選人川普7日與俄羅斯總統蒲亭通電話，就烏克蘭戰爭進行商討。知情人士指出，川普當時曾經簡略提出土地的問題。
 路透社引述「華盛頓郵報」（The Washington Post）報導，川普建議蒲亭（Vladimir Putin）不要讓在烏克蘭的戰事升級，提醒他「華府在歐洲的軍事部署規模可觀」。
@@ -667,31 +714,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>石破茂恭賀川普勝選「通話僅5分鐘」 自民黨幹部曝原因：首相體諒川普</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://tw.news.yahoo.com/%E7%9F%B3%E7%A0%B4%E8%8C%82%E6%81%AD%E8%B3%80%E5%B7%9D%E6%99%AE%E5%8B%9D%E9%81%B8-%E9%80%9A%E8%A9%B1%E5%83%855%E5%88%86%E9%90%98-%E8%87%AA%E6%B0%91%E9%BB%A8%E5%B9%B9%E9%83%A8%E6%9B%9D%E5%8E%9F%E5%9B%A0-%E9%A6%96%E7%9B%B8%E9%AB%94%E8%AB%92%E5%B7%9D%E6%99%AE-222717835.html</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">川普將再度入主白宮，近期也接到各國領袖致電恭賀。日本媒體統計，在已公開的各國領袖致電川普道賀紀錄中，日本首相石破茂和川普通話僅五分鐘，時間最短。
-日本產經新聞報導，自民黨政調會長小野寺五典10日在富士電視台說明原因。他說：「川普當時還想和石破首相多聊聊，但首相考慮到川普是臨時從一場會議離席接聽電話，體諒川普的狀況，讓他早點回到會議中。」
-小野寺也指出，川普可能提高日本汽車進口美國的關稅。他說，「重點是讓川普重新認識到，日本是盟國，和競爭對手中國不同」。關於日本負擔駐日美軍費用，小野寺則說，「有被要求支付可觀金額的風險」。
-【看原文連結】
-更多udn報導小姑新婚租不起房 婆婆竟要媳「收回出租房」…她頭痛求救：怎麼辦？日商超強「水垢清潔布」在台上架獲好評 實用效果很兩極市集攤位假轉帳手段猖狂！ 攤主提醒：結帳完別直接放顧客離開啦啦隊女神寫真挑戰雙手捧胸 被爆休息室脫到剩內褲
-</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
